--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-Temples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C7F80-8A8E-4DEF-92B0-FFF1CC07B489}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D902A4-3E48-4388-84CB-43C9929B9F8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>URL</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>http://manatemples.net/Pages/TE_Warangal.htm</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-Temples/master/22.png</t>
   </si>
 </sst>
 </file>
@@ -487,7 +553,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,77 +571,105 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -592,12 +686,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,60 +704,81 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
